--- a/data/trans_dic/P64D$bicicleta_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P64D$bicicleta_2023-Estudios-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.05388875868484908</v>
+        <v>0.05388875868484906</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01348428201282432</v>
+        <v>0.01235040729027453</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.008468655623451206</v>
+        <v>0.008220446666712516</v>
       </c>
     </row>
     <row r="6">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1649924633265685</v>
+        <v>0.1491618554681529</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.102473821938668</v>
+        <v>0.09995948306123133</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008396617438773351</v>
+        <v>0.00890095700774988</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005194986649427579</v>
+        <v>0.004973404682647583</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008435370101538636</v>
+        <v>0.008501937654975745</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02638455453130605</v>
+        <v>0.02539915640515624</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0167886445682128</v>
+        <v>0.01577214231581868</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01974076158168618</v>
+        <v>0.01971589200864206</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01045557742001183</v>
+        <v>0.01121478103732631</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008598376379199113</v>
+        <v>0.008003625039625617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01171719293855336</v>
+        <v>0.01149425984868844</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03871295859440004</v>
+        <v>0.0389670880833605</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03046233610605971</v>
+        <v>0.03043830127540194</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02892501862415393</v>
+        <v>0.02862509247371086</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01242815152062914</v>
+        <v>0.01291173589371783</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007029420912583218</v>
+        <v>0.007224413571873598</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01168711950169072</v>
+        <v>0.01171289212690802</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02996650751012491</v>
+        <v>0.02990068715129201</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01635645429640307</v>
+        <v>0.01711680555345706</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02228930766161254</v>
+        <v>0.02272649859253491</v>
       </c>
     </row>
     <row r="16">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2173</v>
+        <v>1990</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>2076</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="7">
@@ -921,11 +921,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26586</v>
+        <v>24035</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>25125</v>
+        <v>24508</v>
       </c>
     </row>
     <row r="8">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10593</v>
+        <v>11229</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4848</v>
+        <v>4641</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18514</v>
+        <v>18660</v>
       </c>
     </row>
     <row r="11">
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33285</v>
+        <v>32042</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15668</v>
+        <v>14719</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43326</v>
+        <v>43272</v>
       </c>
     </row>
     <row r="12">
@@ -1046,13 +1046,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5002</v>
+        <v>5365</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4074</v>
+        <v>3792</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11156</v>
+        <v>10944</v>
       </c>
     </row>
     <row r="15">
@@ -1063,13 +1063,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18519</v>
+        <v>18640</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14432</v>
+        <v>14420</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27540</v>
+        <v>27254</v>
       </c>
     </row>
     <row r="16">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23626</v>
+        <v>24546</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10481</v>
+        <v>10772</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>39643</v>
+        <v>39731</v>
       </c>
     </row>
     <row r="19">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>56967</v>
+        <v>56842</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24388</v>
+        <v>25522</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>75607</v>
+        <v>77090</v>
       </c>
     </row>
     <row r="20">
